--- a/Client/Assets/11. GameData/Shop.xlsx
+++ b/Client/Assets/11. GameData/Shop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40FADD1-6084-4760-9013-D428EC7D3AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639A9075-5206-4D6A-8A4F-6F44996FB6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3090" windowWidth="18240" windowHeight="13110" xr2:uid="{C73EE18F-1666-4FAE-8D08-4F83E0B6198E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C73EE18F-1666-4FAE-8D08-4F83E0B6198E}"/>
   </bookViews>
   <sheets>
     <sheet name="Shop_Category" sheetId="4" r:id="rId1"/>
@@ -144,13 +144,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="33">
   <si>
     <t>Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Currency_Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -222,10 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>``</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,12 +265,24 @@
     <t>Number_Goods</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Currency1_Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Currency1_Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Currency2_Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,12 +320,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -797,56 +795,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A30D4F-A46D-44DB-9C45-94F21A730316}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="8" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.69921875" customWidth="1"/>
+    <col min="7" max="8" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>401</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3">
         <v>10</v>
@@ -864,15 +862,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>402</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4">
         <v>10</v>
@@ -890,15 +888,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>403</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3">
         <v>10</v>
@@ -916,15 +914,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>404</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4">
         <v>10</v>
@@ -942,15 +940,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>405</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3">
         <v>8</v>
@@ -968,15 +966,15 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>406</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4">
         <v>10</v>
@@ -994,7 +992,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1013,7 +1011,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1023,7 +1021,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1034,7 +1032,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1053,7 +1051,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1072,7 +1070,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1091,7 +1089,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1110,7 +1108,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1129,7 +1127,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1147,7 +1145,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1166,7 +1164,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1185,7 +1183,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1204,7 +1202,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1223,7 +1221,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1242,7 +1240,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1261,7 +1259,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1291,69 +1289,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE79F550-F555-4EA5-BBC8-3718C6D7919A}">
   <dimension ref="A1:X105"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P11" activeCellId="1" sqref="K9 P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.3984375" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="9" width="12.25" customWidth="1"/>
-    <col min="10" max="10" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.19921875" customWidth="1"/>
+    <col min="7" max="7" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.09765625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>401001</v>
       </c>
@@ -1411,7 +1411,7 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>401002</v>
       </c>
@@ -1469,7 +1469,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>401003</v>
       </c>
@@ -1527,7 +1527,7 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>401004</v>
       </c>
@@ -1585,7 +1585,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>401005</v>
       </c>
@@ -1643,7 +1643,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>401006</v>
       </c>
@@ -1701,7 +1701,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>401007</v>
       </c>
@@ -1759,7 +1759,7 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>401008</v>
       </c>
@@ -1817,7 +1817,7 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>401009</v>
       </c>
@@ -1875,7 +1875,7 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>401010</v>
       </c>
@@ -1933,7 +1933,7 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>401011</v>
       </c>
@@ -1991,7 +1991,7 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>401012</v>
       </c>
@@ -2049,7 +2049,7 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>401013</v>
       </c>
@@ -2107,7 +2107,7 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>401014</v>
       </c>
@@ -2165,7 +2165,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>401015</v>
       </c>
@@ -2223,7 +2223,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>401016</v>
       </c>
@@ -2281,7 +2281,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>401017</v>
       </c>
@@ -2339,7 +2339,7 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>401018</v>
       </c>
@@ -2397,7 +2397,7 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>401019</v>
       </c>
@@ -2455,7 +2455,7 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>401020</v>
       </c>
@@ -2513,7 +2513,7 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>401021</v>
       </c>
@@ -2571,7 +2571,7 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>401022</v>
       </c>
@@ -2629,7 +2629,7 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>401023</v>
       </c>
@@ -2687,7 +2687,7 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>401024</v>
       </c>
@@ -2745,7 +2745,7 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>401025</v>
       </c>
@@ -2803,7 +2803,7 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>401026</v>
       </c>
@@ -2861,7 +2861,7 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>401027</v>
       </c>
@@ -2919,7 +2919,7 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>401028</v>
       </c>
@@ -2977,7 +2977,7 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>401029</v>
       </c>
@@ -3035,7 +3035,7 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>401030</v>
       </c>
@@ -3093,7 +3093,7 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>401031</v>
       </c>
@@ -3151,7 +3151,7 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>401032</v>
       </c>
@@ -3209,7 +3209,7 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>401033</v>
       </c>
@@ -3267,7 +3267,7 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>401034</v>
       </c>
@@ -3325,7 +3325,7 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>401035</v>
       </c>
@@ -3383,7 +3383,7 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>401036</v>
       </c>
@@ -3441,7 +3441,7 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>401037</v>
       </c>
@@ -3499,7 +3499,7 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>401038</v>
       </c>
@@ -3557,7 +3557,7 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A40" s="4">
         <v>402001</v>
       </c>
@@ -3565,34 +3565,34 @@
         <v>402</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M40" s="7">
         <v>73050</v>
@@ -3611,7 +3611,7 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A41" s="4">
         <v>402002</v>
       </c>
@@ -3619,34 +3619,34 @@
         <v>402</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M41" s="7">
         <v>73050</v>
@@ -3665,7 +3665,7 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A42" s="4">
         <v>402003</v>
       </c>
@@ -3673,34 +3673,34 @@
         <v>402</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M42" s="7">
         <v>73050</v>
@@ -3719,7 +3719,7 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A43" s="4">
         <v>402004</v>
       </c>
@@ -3727,34 +3727,34 @@
         <v>402</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M43" s="7">
         <v>73050</v>
@@ -3773,7 +3773,7 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A44" s="4">
         <v>402005</v>
       </c>
@@ -3781,34 +3781,34 @@
         <v>402</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M44" s="7">
         <v>73050</v>
@@ -3827,7 +3827,7 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A45" s="4">
         <v>402006</v>
       </c>
@@ -3835,34 +3835,34 @@
         <v>402</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M45" s="7">
         <v>73050</v>
@@ -3881,7 +3881,7 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>403001</v>
       </c>
@@ -3889,34 +3889,34 @@
         <v>403</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M46" s="5">
         <v>73050</v>
@@ -3935,7 +3935,7 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>403002</v>
       </c>
@@ -3943,34 +3943,34 @@
         <v>403</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M47" s="5">
         <v>73050</v>
@@ -3989,7 +3989,7 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <v>403003</v>
       </c>
@@ -3997,34 +3997,34 @@
         <v>403</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M48" s="5">
         <v>73050</v>
@@ -4043,7 +4043,7 @@
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <v>403004</v>
       </c>
@@ -4051,34 +4051,34 @@
         <v>403</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M49" s="5">
         <v>73050</v>
@@ -4097,7 +4097,7 @@
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <v>403005</v>
       </c>
@@ -4105,34 +4105,34 @@
         <v>403</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M50" s="5">
         <v>73050</v>
@@ -4151,7 +4151,7 @@
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <v>403006</v>
       </c>
@@ -4159,34 +4159,34 @@
         <v>403</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M51" s="5">
         <v>73050</v>
@@ -4205,7 +4205,7 @@
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A52" s="4">
         <v>404001</v>
       </c>
@@ -4213,34 +4213,34 @@
         <v>404</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M52" s="7">
         <v>73050</v>
@@ -4259,7 +4259,7 @@
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A53" s="4">
         <v>404002</v>
       </c>
@@ -4267,34 +4267,34 @@
         <v>404</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M53" s="7">
         <v>73050</v>
@@ -4313,7 +4313,7 @@
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A54" s="4">
         <v>404003</v>
       </c>
@@ -4321,34 +4321,34 @@
         <v>404</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M54" s="7">
         <v>73050</v>
@@ -4367,7 +4367,7 @@
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A55" s="4">
         <v>404004</v>
       </c>
@@ -4375,34 +4375,34 @@
         <v>404</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M55" s="7">
         <v>73050</v>
@@ -4421,7 +4421,7 @@
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A56" s="4">
         <v>404005</v>
       </c>
@@ -4429,34 +4429,34 @@
         <v>404</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M56" s="7">
         <v>73050</v>
@@ -4475,7 +4475,7 @@
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A57" s="4">
         <v>404006</v>
       </c>
@@ -4483,34 +4483,34 @@
         <v>404</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M57" s="7">
         <v>73050</v>
@@ -4529,7 +4529,7 @@
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <v>405001</v>
       </c>
@@ -4552,10 +4552,10 @@
         <v>0</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J58" s="3">
         <v>3</v>
@@ -4583,7 +4583,7 @@
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
         <v>405002</v>
       </c>
@@ -4606,10 +4606,10 @@
         <v>0</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J59" s="3">
         <v>1</v>
@@ -4637,7 +4637,7 @@
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <v>405003</v>
       </c>
@@ -4660,10 +4660,10 @@
         <v>500</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J60" s="3">
         <v>1</v>
@@ -4691,7 +4691,7 @@
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <v>405004</v>
       </c>
@@ -4714,10 +4714,10 @@
         <v>4500</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J61" s="3">
         <v>1</v>
@@ -4745,7 +4745,7 @@
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <v>405005</v>
       </c>
@@ -4768,10 +4768,10 @@
         <v>8900</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J62" s="3">
         <v>1</v>
@@ -4799,7 +4799,7 @@
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <v>405006</v>
       </c>
@@ -4822,10 +4822,10 @@
         <v>1000</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J63" s="3">
         <v>1</v>
@@ -4853,7 +4853,7 @@
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <v>405007</v>
       </c>
@@ -4876,10 +4876,10 @@
         <v>4800</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J64" s="3">
         <v>1</v>
@@ -4907,7 +4907,7 @@
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <v>405008</v>
       </c>
@@ -4930,10 +4930,10 @@
         <v>7200</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J65" s="3">
         <v>1</v>
@@ -4961,7 +4961,7 @@
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A66" s="4">
         <v>406001</v>
       </c>
@@ -4985,10 +4985,10 @@
         <v>500</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J66" s="4">
         <v>1</v>
@@ -5016,7 +5016,7 @@
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A67" s="4">
         <v>406002</v>
       </c>
@@ -5040,10 +5040,10 @@
         <v>500</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J67" s="4">
         <v>1</v>
@@ -5071,7 +5071,7 @@
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A68" s="4">
         <v>406003</v>
       </c>
@@ -5095,10 +5095,10 @@
         <v>500</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J68" s="4">
         <v>1</v>
@@ -5126,7 +5126,7 @@
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A69" s="4">
         <v>406004</v>
       </c>
@@ -5150,10 +5150,10 @@
         <v>500</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J69" s="4">
         <v>1</v>
@@ -5181,7 +5181,7 @@
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A70" s="4">
         <v>406005</v>
       </c>
@@ -5205,10 +5205,10 @@
         <v>500</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J70" s="4">
         <v>1</v>
@@ -5236,7 +5236,7 @@
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A71" s="4">
         <v>406006</v>
       </c>
@@ -5260,10 +5260,10 @@
         <v>500</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J71" s="4">
         <v>1</v>
@@ -5291,7 +5291,7 @@
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A72" s="4">
         <v>406007</v>
       </c>
@@ -5315,10 +5315,10 @@
         <v>500</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J72" s="4">
         <v>1</v>
@@ -5346,7 +5346,7 @@
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A73" s="4">
         <v>406008</v>
       </c>
@@ -5370,10 +5370,10 @@
         <v>500</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J73" s="4">
         <v>1</v>
@@ -5401,7 +5401,7 @@
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A74" s="4">
         <v>406009</v>
       </c>
@@ -5425,10 +5425,10 @@
         <v>500</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J74" s="4">
         <v>1</v>
@@ -5456,7 +5456,7 @@
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A75" s="4">
         <v>406010</v>
       </c>
@@ -5480,10 +5480,10 @@
         <v>500</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J75" s="4">
         <v>1</v>
@@ -5511,7 +5511,7 @@
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A76" s="4">
         <v>406011</v>
       </c>
@@ -5535,10 +5535,10 @@
         <v>500</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J76" s="4">
         <v>1</v>
@@ -5566,7 +5566,7 @@
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A77" s="4">
         <v>406012</v>
       </c>
@@ -5590,10 +5590,10 @@
         <v>500</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J77" s="4">
         <v>1</v>
@@ -5621,7 +5621,7 @@
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A78" s="4">
         <v>406013</v>
       </c>
@@ -5645,10 +5645,10 @@
         <v>1500</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J78" s="4">
         <v>1</v>
@@ -5676,7 +5676,7 @@
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A79" s="4">
         <v>406014</v>
       </c>
@@ -5700,10 +5700,10 @@
         <v>1500</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J79" s="4">
         <v>1</v>
@@ -5731,7 +5731,7 @@
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A80" s="4">
         <v>406015</v>
       </c>
@@ -5755,10 +5755,10 @@
         <v>500</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J80" s="4">
         <v>1</v>
@@ -5786,7 +5786,7 @@
       <c r="W80" s="1"/>
       <c r="X80" s="1"/>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A81" s="4">
         <v>406016</v>
       </c>
@@ -5810,10 +5810,10 @@
         <v>500</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J81" s="4">
         <v>1</v>
@@ -5841,7 +5841,7 @@
       <c r="W81" s="1"/>
       <c r="X81" s="1"/>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A82" s="4">
         <v>406017</v>
       </c>
@@ -5865,10 +5865,10 @@
         <v>1500</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J82" s="4">
         <v>1</v>
@@ -5896,7 +5896,7 @@
       <c r="W82" s="1"/>
       <c r="X82" s="1"/>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A83" s="4">
         <v>406018</v>
       </c>
@@ -5920,10 +5920,10 @@
         <v>1500</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J83" s="4">
         <v>1</v>
@@ -5951,7 +5951,7 @@
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A84" s="4">
         <v>406019</v>
       </c>
@@ -5975,10 +5975,10 @@
         <v>1500</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J84" s="4">
         <v>1</v>
@@ -6004,7 +6004,7 @@
       <c r="U84" s="1"/>
       <c r="V84" s="1"/>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A85" s="4">
         <v>406020</v>
       </c>
@@ -6028,10 +6028,10 @@
         <v>250</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J85" s="4">
         <v>1</v>
@@ -6057,7 +6057,7 @@
       <c r="U85" s="1"/>
       <c r="V85" s="1"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A86" s="4">
         <v>406021</v>
       </c>
@@ -6081,10 +6081,10 @@
         <v>1500</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J86" s="4">
         <v>1</v>
@@ -6110,7 +6110,7 @@
       <c r="U86" s="1"/>
       <c r="V86" s="1"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A87" s="4">
         <v>406022</v>
       </c>
@@ -6134,10 +6134,10 @@
         <v>1500</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J87" s="4">
         <v>1</v>
@@ -6163,7 +6163,7 @@
       <c r="U87" s="1"/>
       <c r="V87" s="1"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A88" s="4">
         <v>406023</v>
       </c>
@@ -6187,10 +6187,10 @@
         <v>500</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J88" s="4">
         <v>1</v>
@@ -6216,7 +6216,7 @@
       <c r="U88" s="1"/>
       <c r="V88" s="1"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A89" s="4">
         <v>406024</v>
       </c>
@@ -6240,10 +6240,10 @@
         <v>500</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J89" s="4">
         <v>1</v>
@@ -6269,7 +6269,7 @@
       <c r="U89" s="1"/>
       <c r="V89" s="1"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A90" s="4">
         <v>406025</v>
       </c>
@@ -6293,10 +6293,10 @@
         <v>500</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J90" s="4">
         <v>1</v>
@@ -6322,7 +6322,7 @@
       <c r="U90" s="1"/>
       <c r="V90" s="1"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A91" s="4">
         <v>406026</v>
       </c>
@@ -6346,10 +6346,10 @@
         <v>250</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J91" s="4">
         <v>1</v>
@@ -6375,7 +6375,7 @@
       <c r="U91" s="1"/>
       <c r="V91" s="1"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A92" s="4">
         <v>406027</v>
       </c>
@@ -6399,10 +6399,10 @@
         <v>250</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J92" s="4">
         <v>1</v>
@@ -6428,7 +6428,7 @@
       <c r="U92" s="1"/>
       <c r="V92" s="1"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A93" s="4">
         <v>406028</v>
       </c>
@@ -6452,10 +6452,10 @@
         <v>250</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J93" s="4">
         <v>1</v>
@@ -6481,7 +6481,7 @@
       <c r="U93" s="1"/>
       <c r="V93" s="1"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A94" s="4">
         <v>406029</v>
       </c>
@@ -6505,10 +6505,10 @@
         <v>500</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J94" s="4">
         <v>1</v>
@@ -6526,7 +6526,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A95" s="4">
         <v>406030</v>
       </c>
@@ -6550,10 +6550,10 @@
         <v>500</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J95" s="4">
         <v>1</v>
@@ -6571,7 +6571,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A96" s="4">
         <v>406031</v>
       </c>
@@ -6595,10 +6595,10 @@
         <v>500</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J96" s="4">
         <v>1</v>
@@ -6616,7 +6616,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A97" s="4">
         <v>406032</v>
       </c>
@@ -6640,10 +6640,10 @@
         <v>500</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J97" s="4">
         <v>1</v>
@@ -6661,7 +6661,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A98" s="4">
         <v>406033</v>
       </c>
@@ -6685,10 +6685,10 @@
         <v>500</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J98" s="4">
         <v>1</v>
@@ -6706,7 +6706,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A99" s="4">
         <v>406034</v>
       </c>
@@ -6730,10 +6730,10 @@
         <v>500</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J99" s="4">
         <v>1</v>
@@ -6751,7 +6751,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A100" s="4">
         <v>406035</v>
       </c>
@@ -6775,10 +6775,10 @@
         <v>500</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I100" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J100" s="4">
         <v>1</v>
@@ -6796,7 +6796,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A101" s="4">
         <v>406036</v>
       </c>
@@ -6820,10 +6820,10 @@
         <v>500</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J101" s="4">
         <v>1</v>
@@ -6841,7 +6841,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A102" s="4">
         <v>406037</v>
       </c>
@@ -6865,10 +6865,10 @@
         <v>500</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J102" s="4">
         <v>1</v>
@@ -6886,7 +6886,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A103" s="4">
         <v>406038</v>
       </c>
@@ -6910,10 +6910,10 @@
         <v>500</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J103" s="4">
         <v>1</v>
@@ -6931,7 +6931,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A104" s="4">
         <v>406039</v>
       </c>
@@ -6955,10 +6955,10 @@
         <v>500</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J104" s="4">
         <v>1</v>
@@ -6976,7 +6976,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A105" s="4">
         <v>406040</v>
       </c>
@@ -7000,10 +7000,10 @@
         <v>500</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J105" s="4">
         <v>1</v>

--- a/Client/Assets/11. GameData/Shop.xlsx
+++ b/Client/Assets/11. GameData/Shop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639A9075-5206-4D6A-8A4F-6F44996FB6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CA6E0C-8BB2-41D5-B134-3CB7ED9751EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C73EE18F-1666-4FAE-8D08-4F83E0B6198E}"/>
+    <workbookView xWindow="-23865" yWindow="1695" windowWidth="22680" windowHeight="13785" activeTab="1" xr2:uid="{C73EE18F-1666-4FAE-8D08-4F83E0B6198E}"/>
   </bookViews>
   <sheets>
     <sheet name="Shop_Category" sheetId="4" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,10 +255,6 @@
   </si>
   <si>
     <t>Currency2_Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -799,18 +795,18 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.69921875" customWidth="1"/>
-    <col min="7" max="8" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="8" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -821,7 +817,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>23</v>
@@ -836,7 +832,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>401</v>
       </c>
@@ -862,7 +858,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>402</v>
       </c>
@@ -888,7 +884,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>403</v>
       </c>
@@ -914,7 +910,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>404</v>
       </c>
@@ -940,7 +936,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>405</v>
       </c>
@@ -966,7 +962,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>406</v>
       </c>
@@ -992,7 +988,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1011,7 +1007,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1032,7 +1028,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1051,7 +1047,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1070,7 +1066,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1089,7 +1085,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1108,7 +1104,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1127,7 +1123,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1145,7 +1141,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1164,7 +1160,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1183,7 +1179,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1202,7 +1198,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1221,7 +1217,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1240,7 +1236,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1259,7 +1255,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1289,27 +1285,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE79F550-F555-4EA5-BBC8-3718C6D7919A}">
   <dimension ref="A1:X105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P11" activeCellId="1" sqref="K9 P11"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.3984375" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.375" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.19921875" customWidth="1"/>
-    <col min="7" max="7" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.09765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1326,16 +1322,16 @@
         <v>22</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>20</v>
@@ -1353,7 +1349,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>401001</v>
       </c>
@@ -1411,7 +1407,7 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>401002</v>
       </c>
@@ -1469,7 +1465,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>401003</v>
       </c>
@@ -1527,7 +1523,7 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>401004</v>
       </c>
@@ -1585,7 +1581,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>401005</v>
       </c>
@@ -1643,7 +1639,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>401006</v>
       </c>
@@ -1701,7 +1697,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>401007</v>
       </c>
@@ -1759,7 +1755,7 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>401008</v>
       </c>
@@ -1817,7 +1813,7 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>401009</v>
       </c>
@@ -1875,7 +1871,7 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>401010</v>
       </c>
@@ -1933,7 +1929,7 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>401011</v>
       </c>
@@ -1991,7 +1987,7 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>401012</v>
       </c>
@@ -2049,7 +2045,7 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>401013</v>
       </c>
@@ -2107,7 +2103,7 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>401014</v>
       </c>
@@ -2165,7 +2161,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>401015</v>
       </c>
@@ -2223,7 +2219,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>401016</v>
       </c>
@@ -2281,7 +2277,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>401017</v>
       </c>
@@ -2339,7 +2335,7 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>401018</v>
       </c>
@@ -2397,7 +2393,7 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>401019</v>
       </c>
@@ -2455,7 +2451,7 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>401020</v>
       </c>
@@ -2513,7 +2509,7 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>401021</v>
       </c>
@@ -2571,7 +2567,7 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>401022</v>
       </c>
@@ -2629,7 +2625,7 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>401023</v>
       </c>
@@ -2687,7 +2683,7 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>401024</v>
       </c>
@@ -2745,7 +2741,7 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>401025</v>
       </c>
@@ -2803,7 +2799,7 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>401026</v>
       </c>
@@ -2861,7 +2857,7 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>401027</v>
       </c>
@@ -2919,7 +2915,7 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>401028</v>
       </c>
@@ -2977,7 +2973,7 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>401029</v>
       </c>
@@ -3035,7 +3031,7 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>401030</v>
       </c>
@@ -3093,7 +3089,7 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>401031</v>
       </c>
@@ -3151,7 +3147,7 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>401032</v>
       </c>
@@ -3209,7 +3205,7 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>401033</v>
       </c>
@@ -3267,7 +3263,7 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>401034</v>
       </c>
@@ -3325,7 +3321,7 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>401035</v>
       </c>
@@ -3383,7 +3379,7 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>401036</v>
       </c>
@@ -3441,7 +3437,7 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>401037</v>
       </c>
@@ -3499,7 +3495,7 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>401038</v>
       </c>
@@ -3557,43 +3553,23 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>402001</v>
       </c>
       <c r="B40" s="4">
         <v>402</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K40" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L40" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
       <c r="M40" s="7">
         <v>73050</v>
       </c>
@@ -3611,43 +3587,23 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>402002</v>
       </c>
       <c r="B41" s="4">
         <v>402</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J41" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L41" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
       <c r="M41" s="7">
         <v>73050</v>
       </c>
@@ -3665,43 +3621,23 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>402003</v>
       </c>
       <c r="B42" s="4">
         <v>402</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L42" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
       <c r="M42" s="7">
         <v>73050</v>
       </c>
@@ -3719,43 +3655,23 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>402004</v>
       </c>
       <c r="B43" s="4">
         <v>402</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K43" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L43" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
       <c r="M43" s="7">
         <v>73050</v>
       </c>
@@ -3773,43 +3689,23 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>402005</v>
       </c>
       <c r="B44" s="4">
         <v>402</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K44" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L44" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
       <c r="M44" s="7">
         <v>73050</v>
       </c>
@@ -3827,43 +3723,23 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>402006</v>
       </c>
       <c r="B45" s="4">
         <v>402</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K45" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L45" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
       <c r="M45" s="7">
         <v>73050</v>
       </c>
@@ -3881,43 +3757,23 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>403001</v>
       </c>
       <c r="B46" s="3">
         <v>403</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K46" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L46" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
       <c r="M46" s="5">
         <v>73050</v>
       </c>
@@ -3935,43 +3791,23 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>403002</v>
       </c>
       <c r="B47" s="3">
         <v>403</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J47" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K47" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L47" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
       <c r="M47" s="5">
         <v>73050</v>
       </c>
@@ -3989,43 +3825,23 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>403003</v>
       </c>
       <c r="B48" s="3">
         <v>403</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K48" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L48" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
       <c r="M48" s="5">
         <v>73050</v>
       </c>
@@ -4043,43 +3859,23 @@
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>403004</v>
       </c>
       <c r="B49" s="3">
         <v>403</v>
       </c>
-      <c r="C49" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K49" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L49" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
       <c r="M49" s="5">
         <v>73050</v>
       </c>
@@ -4097,43 +3893,23 @@
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>403005</v>
       </c>
       <c r="B50" s="3">
         <v>403</v>
       </c>
-      <c r="C50" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I50" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J50" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K50" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L50" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
       <c r="M50" s="5">
         <v>73050</v>
       </c>
@@ -4151,43 +3927,23 @@
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>403006</v>
       </c>
       <c r="B51" s="3">
         <v>403</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I51" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J51" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L51" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
       <c r="M51" s="5">
         <v>73050</v>
       </c>
@@ -4205,43 +3961,23 @@
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>404001</v>
       </c>
       <c r="B52" s="4">
         <v>404</v>
       </c>
-      <c r="C52" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K52" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L52" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
       <c r="M52" s="7">
         <v>73050</v>
       </c>
@@ -4259,43 +3995,23 @@
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>404002</v>
       </c>
       <c r="B53" s="4">
         <v>404</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K53" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L53" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
       <c r="M53" s="7">
         <v>73050</v>
       </c>
@@ -4313,43 +4029,23 @@
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>404003</v>
       </c>
       <c r="B54" s="4">
         <v>404</v>
       </c>
-      <c r="C54" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K54" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L54" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
       <c r="M54" s="7">
         <v>73050</v>
       </c>
@@ -4367,43 +4063,23 @@
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>404004</v>
       </c>
       <c r="B55" s="4">
         <v>404</v>
       </c>
-      <c r="C55" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J55" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K55" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L55" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
       <c r="M55" s="7">
         <v>73050</v>
       </c>
@@ -4421,43 +4097,23 @@
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>404005</v>
       </c>
       <c r="B56" s="4">
         <v>404</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K56" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L56" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
       <c r="M56" s="7">
         <v>73050</v>
       </c>
@@ -4475,43 +4131,23 @@
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>404006</v>
       </c>
       <c r="B57" s="4">
         <v>404</v>
       </c>
-      <c r="C57" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K57" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L57" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
       <c r="M57" s="7">
         <v>73050</v>
       </c>
@@ -4529,7 +4165,7 @@
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>405001</v>
       </c>
@@ -4551,12 +4187,8 @@
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I58" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
       <c r="J58" s="3">
         <v>3</v>
       </c>
@@ -4583,7 +4215,7 @@
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>405002</v>
       </c>
@@ -4605,12 +4237,8 @@
       <c r="G59" s="3">
         <v>0</v>
       </c>
-      <c r="H59" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I59" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
       <c r="J59" s="3">
         <v>1</v>
       </c>
@@ -4637,7 +4265,7 @@
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>405003</v>
       </c>
@@ -4659,12 +4287,8 @@
       <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I60" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
       <c r="J60" s="3">
         <v>1</v>
       </c>
@@ -4691,7 +4315,7 @@
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>405004</v>
       </c>
@@ -4713,12 +4337,8 @@
       <c r="G61" s="3">
         <v>4500</v>
       </c>
-      <c r="H61" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I61" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
       <c r="J61" s="3">
         <v>1</v>
       </c>
@@ -4745,7 +4365,7 @@
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>405005</v>
       </c>
@@ -4767,12 +4387,8 @@
       <c r="G62" s="3">
         <v>8900</v>
       </c>
-      <c r="H62" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I62" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
       <c r="J62" s="3">
         <v>1</v>
       </c>
@@ -4799,7 +4415,7 @@
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>405006</v>
       </c>
@@ -4821,12 +4437,8 @@
       <c r="G63" s="3">
         <v>1000</v>
       </c>
-      <c r="H63" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I63" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
       <c r="J63" s="3">
         <v>1</v>
       </c>
@@ -4853,7 +4465,7 @@
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>405007</v>
       </c>
@@ -4875,12 +4487,8 @@
       <c r="G64" s="3">
         <v>4800</v>
       </c>
-      <c r="H64" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I64" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
       <c r="J64" s="3">
         <v>1</v>
       </c>
@@ -4907,7 +4515,7 @@
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>405008</v>
       </c>
@@ -4929,12 +4537,8 @@
       <c r="G65" s="3">
         <v>7200</v>
       </c>
-      <c r="H65" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I65" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
       <c r="J65" s="3">
         <v>1</v>
       </c>
@@ -4961,7 +4565,7 @@
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>406001</v>
       </c>
@@ -4984,12 +4588,8 @@
         <f>CHOOSE(D66,250,500,1500)</f>
         <v>500</v>
       </c>
-      <c r="H66" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I66" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
       <c r="J66" s="4">
         <v>1</v>
       </c>
@@ -5016,7 +4616,7 @@
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>406002</v>
       </c>
@@ -5039,12 +4639,8 @@
         <f t="shared" ref="G67:G105" si="4">CHOOSE(D67,250,500,1500)</f>
         <v>500</v>
       </c>
-      <c r="H67" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I67" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
       <c r="J67" s="4">
         <v>1</v>
       </c>
@@ -5071,7 +4667,7 @@
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>406003</v>
       </c>
@@ -5094,12 +4690,8 @@
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H68" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I68" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
       <c r="J68" s="4">
         <v>1</v>
       </c>
@@ -5126,7 +4718,7 @@
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>406004</v>
       </c>
@@ -5149,12 +4741,8 @@
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H69" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I69" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
       <c r="J69" s="4">
         <v>1</v>
       </c>
@@ -5181,7 +4769,7 @@
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>406005</v>
       </c>
@@ -5204,12 +4792,8 @@
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H70" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I70" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
       <c r="J70" s="4">
         <v>1</v>
       </c>
@@ -5236,7 +4820,7 @@
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>406006</v>
       </c>
@@ -5259,12 +4843,8 @@
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H71" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I71" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
       <c r="J71" s="4">
         <v>1</v>
       </c>
@@ -5291,7 +4871,7 @@
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>406007</v>
       </c>
@@ -5314,12 +4894,8 @@
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H72" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I72" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
       <c r="J72" s="4">
         <v>1</v>
       </c>
@@ -5346,7 +4922,7 @@
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>406008</v>
       </c>
@@ -5369,12 +4945,8 @@
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H73" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I73" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
       <c r="J73" s="4">
         <v>1</v>
       </c>
@@ -5401,7 +4973,7 @@
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>406009</v>
       </c>
@@ -5424,12 +4996,8 @@
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H74" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I74" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
       <c r="J74" s="4">
         <v>1</v>
       </c>
@@ -5456,7 +5024,7 @@
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>406010</v>
       </c>
@@ -5479,12 +5047,8 @@
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H75" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I75" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
       <c r="J75" s="4">
         <v>1</v>
       </c>
@@ -5511,7 +5075,7 @@
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>406011</v>
       </c>
@@ -5534,12 +5098,8 @@
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H76" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I76" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
       <c r="J76" s="4">
         <v>1</v>
       </c>
@@ -5566,7 +5126,7 @@
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>406012</v>
       </c>
@@ -5589,12 +5149,8 @@
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H77" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I77" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
       <c r="J77" s="4">
         <v>1</v>
       </c>
@@ -5621,7 +5177,7 @@
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>406013</v>
       </c>
@@ -5644,12 +5200,8 @@
         <f t="shared" si="4"/>
         <v>1500</v>
       </c>
-      <c r="H78" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I78" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
       <c r="J78" s="4">
         <v>1</v>
       </c>
@@ -5676,7 +5228,7 @@
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>406014</v>
       </c>
@@ -5699,12 +5251,8 @@
         <f t="shared" si="4"/>
         <v>1500</v>
       </c>
-      <c r="H79" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I79" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
       <c r="J79" s="4">
         <v>1</v>
       </c>
@@ -5731,7 +5279,7 @@
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>406015</v>
       </c>
@@ -5754,12 +5302,8 @@
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H80" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I80" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
       <c r="J80" s="4">
         <v>1</v>
       </c>
@@ -5786,7 +5330,7 @@
       <c r="W80" s="1"/>
       <c r="X80" s="1"/>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>406016</v>
       </c>
@@ -5809,12 +5353,8 @@
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H81" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I81" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
       <c r="J81" s="4">
         <v>1</v>
       </c>
@@ -5841,7 +5381,7 @@
       <c r="W81" s="1"/>
       <c r="X81" s="1"/>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>406017</v>
       </c>
@@ -5864,12 +5404,8 @@
         <f t="shared" si="4"/>
         <v>1500</v>
       </c>
-      <c r="H82" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I82" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
       <c r="J82" s="4">
         <v>1</v>
       </c>
@@ -5896,7 +5432,7 @@
       <c r="W82" s="1"/>
       <c r="X82" s="1"/>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>406018</v>
       </c>
@@ -5919,12 +5455,8 @@
         <f t="shared" si="4"/>
         <v>1500</v>
       </c>
-      <c r="H83" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I83" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
       <c r="J83" s="4">
         <v>1</v>
       </c>
@@ -5951,7 +5483,7 @@
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>406019</v>
       </c>
@@ -5974,12 +5506,8 @@
         <f t="shared" si="4"/>
         <v>1500</v>
       </c>
-      <c r="H84" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I84" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
       <c r="J84" s="4">
         <v>1</v>
       </c>
@@ -6004,7 +5532,7 @@
       <c r="U84" s="1"/>
       <c r="V84" s="1"/>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>406020</v>
       </c>
@@ -6027,12 +5555,8 @@
         <f t="shared" si="4"/>
         <v>250</v>
       </c>
-      <c r="H85" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I85" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
       <c r="J85" s="4">
         <v>1</v>
       </c>
@@ -6057,7 +5581,7 @@
       <c r="U85" s="1"/>
       <c r="V85" s="1"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>406021</v>
       </c>
@@ -6080,12 +5604,8 @@
         <f t="shared" si="4"/>
         <v>1500</v>
       </c>
-      <c r="H86" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I86" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
       <c r="J86" s="4">
         <v>1</v>
       </c>
@@ -6110,7 +5630,7 @@
       <c r="U86" s="1"/>
       <c r="V86" s="1"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>406022</v>
       </c>
@@ -6133,12 +5653,8 @@
         <f t="shared" si="4"/>
         <v>1500</v>
       </c>
-      <c r="H87" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I87" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
       <c r="J87" s="4">
         <v>1</v>
       </c>
@@ -6163,7 +5679,7 @@
       <c r="U87" s="1"/>
       <c r="V87" s="1"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>406023</v>
       </c>
@@ -6186,12 +5702,8 @@
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H88" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I88" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
       <c r="J88" s="4">
         <v>1</v>
       </c>
@@ -6216,7 +5728,7 @@
       <c r="U88" s="1"/>
       <c r="V88" s="1"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>406024</v>
       </c>
@@ -6239,12 +5751,8 @@
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H89" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I89" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
       <c r="J89" s="4">
         <v>1</v>
       </c>
@@ -6269,7 +5777,7 @@
       <c r="U89" s="1"/>
       <c r="V89" s="1"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>406025</v>
       </c>
@@ -6292,12 +5800,8 @@
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H90" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I90" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
       <c r="J90" s="4">
         <v>1</v>
       </c>
@@ -6322,7 +5826,7 @@
       <c r="U90" s="1"/>
       <c r="V90" s="1"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>406026</v>
       </c>
@@ -6345,12 +5849,8 @@
         <f t="shared" si="4"/>
         <v>250</v>
       </c>
-      <c r="H91" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I91" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
       <c r="J91" s="4">
         <v>1</v>
       </c>
@@ -6375,7 +5875,7 @@
       <c r="U91" s="1"/>
       <c r="V91" s="1"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>406027</v>
       </c>
@@ -6398,12 +5898,8 @@
         <f t="shared" si="4"/>
         <v>250</v>
       </c>
-      <c r="H92" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I92" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
       <c r="J92" s="4">
         <v>1</v>
       </c>
@@ -6428,7 +5924,7 @@
       <c r="U92" s="1"/>
       <c r="V92" s="1"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>406028</v>
       </c>
@@ -6451,12 +5947,8 @@
         <f t="shared" si="4"/>
         <v>250</v>
       </c>
-      <c r="H93" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I93" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
       <c r="J93" s="4">
         <v>1</v>
       </c>
@@ -6481,7 +5973,7 @@
       <c r="U93" s="1"/>
       <c r="V93" s="1"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>406029</v>
       </c>
@@ -6504,12 +5996,8 @@
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H94" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I94" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
       <c r="J94" s="4">
         <v>1</v>
       </c>
@@ -6526,7 +6014,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>406030</v>
       </c>
@@ -6549,12 +6037,8 @@
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H95" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I95" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
       <c r="J95" s="4">
         <v>1</v>
       </c>
@@ -6571,7 +6055,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>406031</v>
       </c>
@@ -6594,12 +6078,8 @@
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H96" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I96" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
       <c r="J96" s="4">
         <v>1</v>
       </c>
@@ -6616,7 +6096,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>406032</v>
       </c>
@@ -6639,12 +6119,8 @@
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H97" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I97" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
       <c r="J97" s="4">
         <v>1</v>
       </c>
@@ -6661,7 +6137,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>406033</v>
       </c>
@@ -6684,12 +6160,8 @@
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H98" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I98" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
       <c r="J98" s="4">
         <v>1</v>
       </c>
@@ -6706,7 +6178,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>406034</v>
       </c>
@@ -6729,12 +6201,8 @@
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H99" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I99" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
       <c r="J99" s="4">
         <v>1</v>
       </c>
@@ -6751,7 +6219,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>406035</v>
       </c>
@@ -6774,12 +6242,8 @@
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H100" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I100" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
       <c r="J100" s="4">
         <v>1</v>
       </c>
@@ -6796,7 +6260,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>406036</v>
       </c>
@@ -6819,12 +6283,8 @@
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H101" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I101" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
       <c r="J101" s="4">
         <v>1</v>
       </c>
@@ -6841,7 +6301,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>406037</v>
       </c>
@@ -6864,12 +6324,8 @@
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H102" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I102" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
       <c r="J102" s="4">
         <v>1</v>
       </c>
@@ -6886,7 +6342,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>406038</v>
       </c>
@@ -6909,12 +6365,8 @@
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H103" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I103" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
       <c r="J103" s="4">
         <v>1</v>
       </c>
@@ -6931,7 +6383,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>406039</v>
       </c>
@@ -6954,12 +6406,8 @@
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H104" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I104" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
       <c r="J104" s="4">
         <v>1</v>
       </c>
@@ -6976,7 +6424,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>406040</v>
       </c>
@@ -6999,12 +6447,8 @@
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="H105" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I105" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
       <c r="J105" s="4">
         <v>1</v>
       </c>

--- a/Client/Assets/11. GameData/Shop.xlsx
+++ b/Client/Assets/11. GameData/Shop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\FestivalTownProject\Client\Assets\11. GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CA6E0C-8BB2-41D5-B134-3CB7ED9751EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36206048-CBEC-42C2-8C49-6A3849E2AA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23865" yWindow="1695" windowWidth="22680" windowHeight="13785" activeTab="1" xr2:uid="{C73EE18F-1666-4FAE-8D08-4F83E0B6198E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C73EE18F-1666-4FAE-8D08-4F83E0B6198E}"/>
   </bookViews>
   <sheets>
     <sheet name="Shop_Category" sheetId="4" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,35 +206,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Discount_Rate_Min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discount_Rate_Max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Category_Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>``</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Reroll_Term</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Purchase_Limit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_Amount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -250,28 +226,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Item_Grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Currency2_Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Number_Goods</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Currency1_Price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Category_Index</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Item_Grade</t>
+  </si>
+  <si>
+    <t>Item_Amount</t>
   </si>
   <si>
     <t>Currency1_Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Currency1_Price</t>
+  </si>
+  <si>
+    <t>Currency2_Id</t>
   </si>
   <si>
     <t>Currency2_Price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase_Limit</t>
+  </si>
+  <si>
+    <t>Discount_Rate_Min</t>
+  </si>
+  <si>
+    <t>Discount_Rate_Max</t>
+  </si>
+  <si>
+    <t>Open_Date</t>
+  </si>
+  <si>
+    <t>Close_Date</t>
   </si>
 </sst>
 </file>
@@ -817,19 +815,19 @@
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -1017,7 +1015,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1285,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE79F550-F555-4EA5-BBC8-3718C6D7919A}">
   <dimension ref="A1:X105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1307,46 +1305,46 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
@@ -1369,25 +1367,21 @@
         <v>100001</v>
       </c>
       <c r="G2" s="3">
-        <f>CHOOSE(D2,3000,7000,15000)</f>
         <v>3000</v>
       </c>
       <c r="H2" s="3">
         <v>100002</v>
       </c>
       <c r="I2" s="3">
-        <f>CHOOSE(D2,300,700,1500)</f>
         <v>300</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
       </c>
       <c r="K2" s="3">
-        <f>CHOOSE(D2,30,20,10)</f>
         <v>30</v>
       </c>
       <c r="L2" s="3">
-        <f>CHOOSE(D2,70,50,30)</f>
         <v>70</v>
       </c>
       <c r="M2" s="6">
@@ -1427,25 +1421,21 @@
         <v>100001</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G39" si="0">CHOOSE(D3,1500,3000,5000)</f>
         <v>1500</v>
       </c>
       <c r="H3" s="3">
         <v>100002</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I39" si="1">CHOOSE(D3,300,700,1500)</f>
         <v>300</v>
       </c>
       <c r="J3" s="3">
         <v>1</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K39" si="2">CHOOSE(D3,30,20,10)</f>
         <v>30</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" ref="L3:L39" si="3">CHOOSE(D3,70,50,30)</f>
         <v>70</v>
       </c>
       <c r="M3" s="6">
@@ -1485,25 +1475,21 @@
         <v>100001</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H4" s="3">
         <v>100002</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J4" s="3">
         <v>1</v>
       </c>
       <c r="K4" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L4" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M4" s="6">
@@ -1543,25 +1529,21 @@
         <v>100001</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H5" s="3">
         <v>100002</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J5" s="3">
         <v>1</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L5" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M5" s="6">
@@ -1601,25 +1583,21 @@
         <v>100001</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H6" s="3">
         <v>100002</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J6" s="3">
         <v>1</v>
       </c>
       <c r="K6" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L6" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M6" s="6">
@@ -1659,25 +1637,21 @@
         <v>100001</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="H7" s="3">
         <v>100002</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="J7" s="3">
         <v>1</v>
       </c>
       <c r="K7" s="3">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L7" s="3">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M7" s="6">
@@ -1717,25 +1691,21 @@
         <v>100001</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="H8" s="3">
         <v>100002</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="J8" s="3">
         <v>1</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L8" s="3">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M8" s="6">
@@ -1775,25 +1745,21 @@
         <v>100001</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="H9" s="3">
         <v>100002</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="J9" s="3">
         <v>1</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M9" s="6">
@@ -1833,25 +1799,21 @@
         <v>100001</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="H10" s="3">
         <v>100002</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="J10" s="3">
         <v>1</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L10" s="3">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M10" s="6">
@@ -1891,25 +1853,21 @@
         <v>100001</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="H11" s="3">
         <v>100002</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="J11" s="3">
         <v>1</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L11" s="3">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M11" s="6">
@@ -1949,25 +1907,21 @@
         <v>100001</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="H12" s="3">
         <v>100002</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="J12" s="3">
         <v>1</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L12" s="3">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M12" s="6">
@@ -2007,25 +1961,21 @@
         <v>100001</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="H13" s="3">
         <v>100002</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="J13" s="3">
         <v>1</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L13" s="3">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M13" s="6">
@@ -2065,25 +2015,21 @@
         <v>100001</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="H14" s="3">
         <v>100002</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="J14" s="3">
         <v>1</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L14" s="3">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M14" s="6">
@@ -2123,25 +2069,21 @@
         <v>100001</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="H15" s="3">
         <v>100002</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="J15" s="3">
         <v>1</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M15" s="6">
@@ -2181,25 +2123,21 @@
         <v>100001</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="H16" s="3">
         <v>100002</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="J16" s="3">
         <v>1</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L16" s="3">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M16" s="6">
@@ -2239,25 +2177,21 @@
         <v>100001</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="H17" s="3">
         <v>100002</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="J17" s="3">
         <v>1</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L17" s="3">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M17" s="6">
@@ -2297,25 +2231,21 @@
         <v>100001</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="H18" s="3">
         <v>100002</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="J18" s="3">
         <v>1</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L18" s="3">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M18" s="6">
@@ -2355,25 +2285,21 @@
         <v>100001</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="H19" s="3">
         <v>100002</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="J19" s="3">
         <v>1</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M19" s="6">
@@ -2413,25 +2339,21 @@
         <v>100001</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="H20" s="3">
         <v>100002</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="J20" s="3">
         <v>1</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L20" s="3">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M20" s="6">
@@ -2471,25 +2393,21 @@
         <v>100001</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H21" s="3">
         <v>100002</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M21" s="6">
@@ -2529,25 +2447,21 @@
         <v>100001</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H22" s="3">
         <v>100002</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>1</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M22" s="6">
@@ -2587,25 +2501,21 @@
         <v>100001</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H23" s="3">
         <v>100002</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J23" s="3">
         <v>1</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L23" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M23" s="6">
@@ -2645,25 +2555,21 @@
         <v>100001</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H24" s="3">
         <v>100002</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J24" s="3">
         <v>1</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L24" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M24" s="6">
@@ -2703,25 +2609,21 @@
         <v>100001</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H25" s="3">
         <v>100002</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J25" s="3">
         <v>1</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L25" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M25" s="6">
@@ -2761,25 +2663,21 @@
         <v>100001</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H26" s="3">
         <v>100002</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J26" s="3">
         <v>1</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L26" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M26" s="6">
@@ -2819,25 +2717,21 @@
         <v>100001</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H27" s="3">
         <v>100002</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J27" s="3">
         <v>1</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L27" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M27" s="6">
@@ -2877,25 +2771,21 @@
         <v>100001</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H28" s="3">
         <v>100002</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J28" s="3">
         <v>1</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L28" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M28" s="6">
@@ -2935,25 +2825,21 @@
         <v>100001</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H29" s="3">
         <v>100002</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J29" s="3">
         <v>1</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L29" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M29" s="6">
@@ -2993,25 +2879,21 @@
         <v>100001</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H30" s="3">
         <v>100002</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J30" s="3">
         <v>1</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L30" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M30" s="6">
@@ -3051,25 +2933,21 @@
         <v>100001</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H31" s="3">
         <v>100002</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J31" s="3">
         <v>1</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L31" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M31" s="6">
@@ -3109,25 +2987,21 @@
         <v>100001</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H32" s="3">
         <v>100002</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J32" s="3">
         <v>1</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L32" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M32" s="6">
@@ -3167,25 +3041,21 @@
         <v>100001</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H33" s="3">
         <v>100002</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J33" s="3">
         <v>1</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L33" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M33" s="6">
@@ -3225,25 +3095,21 @@
         <v>100001</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H34" s="3">
         <v>100002</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J34" s="3">
         <v>1</v>
       </c>
       <c r="K34" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L34" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M34" s="6">
@@ -3283,25 +3149,21 @@
         <v>100001</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H35" s="3">
         <v>100002</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J35" s="3">
         <v>1</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L35" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M35" s="6">
@@ -3341,25 +3203,21 @@
         <v>100001</v>
       </c>
       <c r="G36" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H36" s="3">
         <v>100002</v>
       </c>
       <c r="I36" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J36" s="3">
         <v>1</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L36" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M36" s="6">
@@ -3399,25 +3257,21 @@
         <v>100001</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H37" s="3">
         <v>100002</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J37" s="3">
         <v>1</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L37" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M37" s="6">
@@ -3457,25 +3311,21 @@
         <v>100001</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H38" s="3">
         <v>100002</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J38" s="3">
         <v>1</v>
       </c>
       <c r="K38" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L38" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M38" s="6">
@@ -3515,25 +3365,21 @@
         <v>100001</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="H39" s="3">
         <v>100002</v>
       </c>
       <c r="I39" s="3">
-        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="J39" s="3">
         <v>1</v>
       </c>
       <c r="K39" s="3">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L39" s="3">
-        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="M39" s="6">
@@ -4585,7 +4431,6 @@
         <v>100003</v>
       </c>
       <c r="G66" s="4">
-        <f>CHOOSE(D66,250,500,1500)</f>
         <v>500</v>
       </c>
       <c r="H66" s="11"/>
@@ -4636,7 +4481,6 @@
         <v>100003</v>
       </c>
       <c r="G67" s="4">
-        <f t="shared" ref="G67:G105" si="4">CHOOSE(D67,250,500,1500)</f>
         <v>500</v>
       </c>
       <c r="H67" s="11"/>
@@ -4687,7 +4531,6 @@
         <v>100003</v>
       </c>
       <c r="G68" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="H68" s="11"/>
@@ -4738,7 +4581,6 @@
         <v>100003</v>
       </c>
       <c r="G69" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="H69" s="11"/>
@@ -4789,7 +4631,6 @@
         <v>100003</v>
       </c>
       <c r="G70" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="H70" s="11"/>
@@ -4840,7 +4681,6 @@
         <v>100003</v>
       </c>
       <c r="G71" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="H71" s="11"/>
@@ -4891,7 +4731,6 @@
         <v>100003</v>
       </c>
       <c r="G72" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="H72" s="11"/>
@@ -4942,7 +4781,6 @@
         <v>100003</v>
       </c>
       <c r="G73" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="H73" s="11"/>
@@ -4993,7 +4831,6 @@
         <v>100003</v>
       </c>
       <c r="G74" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="H74" s="11"/>
@@ -5044,7 +4881,6 @@
         <v>100003</v>
       </c>
       <c r="G75" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="H75" s="11"/>
@@ -5095,7 +4931,6 @@
         <v>100003</v>
       </c>
       <c r="G76" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="H76" s="11"/>
@@ -5146,7 +4981,6 @@
         <v>100003</v>
       </c>
       <c r="G77" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="H77" s="11"/>
@@ -5197,7 +5031,6 @@
         <v>100003</v>
       </c>
       <c r="G78" s="4">
-        <f t="shared" si="4"/>
         <v>1500</v>
       </c>
       <c r="H78" s="11"/>
@@ -5248,7 +5081,6 @@
         <v>100003</v>
       </c>
       <c r="G79" s="4">
-        <f t="shared" si="4"/>
         <v>1500</v>
       </c>
       <c r="H79" s="11"/>
@@ -5299,7 +5131,6 @@
         <v>100003</v>
       </c>
       <c r="G80" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="H80" s="11"/>
@@ -5350,7 +5181,6 @@
         <v>100003</v>
       </c>
       <c r="G81" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="H81" s="11"/>
@@ -5401,7 +5231,6 @@
         <v>100003</v>
       </c>
       <c r="G82" s="4">
-        <f t="shared" si="4"/>
         <v>1500</v>
       </c>
       <c r="H82" s="11"/>
@@ -5452,7 +5281,6 @@
         <v>100003</v>
       </c>
       <c r="G83" s="4">
-        <f t="shared" si="4"/>
         <v>1500</v>
       </c>
       <c r="H83" s="11"/>
@@ -5503,7 +5331,6 @@
         <v>100003</v>
       </c>
       <c r="G84" s="4">
-        <f t="shared" si="4"/>
         <v>1500</v>
       </c>
       <c r="H84" s="11"/>
@@ -5552,7 +5379,6 @@
         <v>100003</v>
       </c>
       <c r="G85" s="4">
-        <f t="shared" si="4"/>
         <v>250</v>
       </c>
       <c r="H85" s="11"/>
@@ -5601,7 +5427,6 @@
         <v>100003</v>
       </c>
       <c r="G86" s="4">
-        <f t="shared" si="4"/>
         <v>1500</v>
       </c>
       <c r="H86" s="11"/>
@@ -5650,7 +5475,6 @@
         <v>100003</v>
       </c>
       <c r="G87" s="4">
-        <f t="shared" si="4"/>
         <v>1500</v>
       </c>
       <c r="H87" s="11"/>
@@ -5699,7 +5523,6 @@
         <v>100003</v>
       </c>
       <c r="G88" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="H88" s="11"/>
@@ -5748,7 +5571,6 @@
         <v>100003</v>
       </c>
       <c r="G89" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="H89" s="11"/>
@@ -5797,7 +5619,6 @@
         <v>100003</v>
       </c>
       <c r="G90" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="H90" s="11"/>
@@ -5846,7 +5667,6 @@
         <v>100003</v>
       </c>
       <c r="G91" s="4">
-        <f t="shared" si="4"/>
         <v>250</v>
       </c>
       <c r="H91" s="11"/>
@@ -5895,7 +5715,6 @@
         <v>100003</v>
       </c>
       <c r="G92" s="4">
-        <f t="shared" si="4"/>
         <v>250</v>
       </c>
       <c r="H92" s="11"/>
@@ -5944,7 +5763,6 @@
         <v>100003</v>
       </c>
       <c r="G93" s="4">
-        <f t="shared" si="4"/>
         <v>250</v>
       </c>
       <c r="H93" s="11"/>
@@ -5993,7 +5811,6 @@
         <v>100003</v>
       </c>
       <c r="G94" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="H94" s="11"/>
@@ -6034,7 +5851,6 @@
         <v>100003</v>
       </c>
       <c r="G95" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="H95" s="11"/>
@@ -6075,7 +5891,6 @@
         <v>100003</v>
       </c>
       <c r="G96" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="H96" s="11"/>
@@ -6116,7 +5931,6 @@
         <v>100003</v>
       </c>
       <c r="G97" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="H97" s="11"/>
@@ -6157,7 +5971,6 @@
         <v>100003</v>
       </c>
       <c r="G98" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="H98" s="11"/>
@@ -6198,7 +6011,6 @@
         <v>100003</v>
       </c>
       <c r="G99" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="H99" s="11"/>
@@ -6239,7 +6051,6 @@
         <v>100003</v>
       </c>
       <c r="G100" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="H100" s="11"/>
@@ -6280,7 +6091,6 @@
         <v>100003</v>
       </c>
       <c r="G101" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="H101" s="11"/>
@@ -6321,7 +6131,6 @@
         <v>100003</v>
       </c>
       <c r="G102" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="H102" s="11"/>
@@ -6362,7 +6171,6 @@
         <v>100003</v>
       </c>
       <c r="G103" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="H103" s="11"/>
@@ -6403,7 +6211,6 @@
         <v>100003</v>
       </c>
       <c r="G104" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="H104" s="11"/>
@@ -6444,7 +6251,6 @@
         <v>100003</v>
       </c>
       <c r="G105" s="4">
-        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="H105" s="11"/>

--- a/Client/Assets/11. GameData/Shop.xlsx
+++ b/Client/Assets/11. GameData/Shop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JMTJ\new\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36206048-CBEC-42C2-8C49-6A3849E2AA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B9833E-46C4-48EC-B13D-8BFC40B92B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C73EE18F-1666-4FAE-8D08-4F83E0B6198E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C73EE18F-1666-4FAE-8D08-4F83E0B6198E}"/>
   </bookViews>
   <sheets>
     <sheet name="Shop_Category" sheetId="4" r:id="rId1"/>
@@ -1283,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE79F550-F555-4EA5-BBC8-3718C6D7919A}">
   <dimension ref="A1:X105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3610,21 +3610,41 @@
       <c r="B46" s="3">
         <v>403</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="5">
-        <v>73050</v>
-      </c>
-      <c r="N46" s="5">
-        <v>73050</v>
+      <c r="C46" s="3">
+        <v>601</v>
+      </c>
+      <c r="D46" s="3">
+        <v>4</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>100002</v>
+      </c>
+      <c r="G46" s="3">
+        <v>950</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="8">
+        <v>45657</v>
+      </c>
+      <c r="N46" s="8">
+        <v>45743</v>
       </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
@@ -4448,7 +4468,7 @@
         <v>45657</v>
       </c>
       <c r="N66" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
@@ -4498,7 +4518,7 @@
         <v>45657</v>
       </c>
       <c r="N67" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
@@ -4548,7 +4568,7 @@
         <v>45657</v>
       </c>
       <c r="N68" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
@@ -4598,7 +4618,7 @@
         <v>45657</v>
       </c>
       <c r="N69" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
@@ -4648,7 +4668,7 @@
         <v>45657</v>
       </c>
       <c r="N70" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
@@ -4698,7 +4718,7 @@
         <v>45657</v>
       </c>
       <c r="N71" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
@@ -4748,7 +4768,7 @@
         <v>45657</v>
       </c>
       <c r="N72" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
@@ -4798,7 +4818,7 @@
         <v>45657</v>
       </c>
       <c r="N73" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
@@ -4848,7 +4868,7 @@
         <v>45657</v>
       </c>
       <c r="N74" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
@@ -4898,7 +4918,7 @@
         <v>45657</v>
       </c>
       <c r="N75" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
@@ -4948,7 +4968,7 @@
         <v>45657</v>
       </c>
       <c r="N76" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
@@ -4998,7 +5018,7 @@
         <v>45657</v>
       </c>
       <c r="N77" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
@@ -5048,7 +5068,7 @@
         <v>45657</v>
       </c>
       <c r="N78" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
@@ -5098,7 +5118,7 @@
         <v>45657</v>
       </c>
       <c r="N79" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
@@ -5148,7 +5168,7 @@
         <v>45657</v>
       </c>
       <c r="N80" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
@@ -5198,7 +5218,7 @@
         <v>45657</v>
       </c>
       <c r="N81" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
@@ -5248,7 +5268,7 @@
         <v>45657</v>
       </c>
       <c r="N82" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
@@ -5298,7 +5318,7 @@
         <v>45657</v>
       </c>
       <c r="N83" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
@@ -5348,7 +5368,7 @@
         <v>45657</v>
       </c>
       <c r="N84" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
@@ -5396,7 +5416,7 @@
         <v>45657</v>
       </c>
       <c r="N85" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
@@ -5444,7 +5464,7 @@
         <v>45657</v>
       </c>
       <c r="N86" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
@@ -5492,7 +5512,7 @@
         <v>45657</v>
       </c>
       <c r="N87" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
@@ -5540,7 +5560,7 @@
         <v>45657</v>
       </c>
       <c r="N88" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
@@ -5588,7 +5608,7 @@
         <v>45657</v>
       </c>
       <c r="N89" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
@@ -5636,7 +5656,7 @@
         <v>45657</v>
       </c>
       <c r="N90" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
@@ -5684,7 +5704,7 @@
         <v>45657</v>
       </c>
       <c r="N91" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
@@ -5732,7 +5752,7 @@
         <v>45657</v>
       </c>
       <c r="N92" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
@@ -5780,7 +5800,7 @@
         <v>45657</v>
       </c>
       <c r="N93" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
@@ -5828,7 +5848,7 @@
         <v>45657</v>
       </c>
       <c r="N94" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.3">
@@ -5868,7 +5888,7 @@
         <v>45657</v>
       </c>
       <c r="N95" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.3">
@@ -5908,7 +5928,7 @@
         <v>45657</v>
       </c>
       <c r="N96" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
@@ -5948,7 +5968,7 @@
         <v>45657</v>
       </c>
       <c r="N97" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
@@ -5988,7 +6008,7 @@
         <v>45657</v>
       </c>
       <c r="N98" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
@@ -6028,7 +6048,7 @@
         <v>45657</v>
       </c>
       <c r="N99" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
@@ -6068,7 +6088,7 @@
         <v>45657</v>
       </c>
       <c r="N100" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
@@ -6108,7 +6128,7 @@
         <v>45657</v>
       </c>
       <c r="N101" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
@@ -6148,7 +6168,7 @@
         <v>45657</v>
       </c>
       <c r="N102" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
@@ -6188,7 +6208,7 @@
         <v>45657</v>
       </c>
       <c r="N103" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
@@ -6228,7 +6248,7 @@
         <v>45657</v>
       </c>
       <c r="N104" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
@@ -6268,7 +6288,7 @@
         <v>45657</v>
       </c>
       <c r="N105" s="8">
-        <v>45657</v>
+        <v>45743</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/11. GameData/Shop.xlsx
+++ b/Client/Assets/11. GameData/Shop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JMTJ\new\FestivalTownProject\Client\Assets\11. GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcmbb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B9833E-46C4-48EC-B13D-8BFC40B92B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171BF5A8-E803-4D97-95F9-73CC14EE8D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C73EE18F-1666-4FAE-8D08-4F83E0B6198E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C73EE18F-1666-4FAE-8D08-4F83E0B6198E}"/>
   </bookViews>
   <sheets>
     <sheet name="Shop_Category" sheetId="4" r:id="rId1"/>
@@ -793,18 +793,18 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="8" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.69921875" customWidth="1"/>
+    <col min="7" max="8" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -830,7 +830,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>401</v>
       </c>
@@ -856,7 +856,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>402</v>
       </c>
@@ -882,7 +882,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>403</v>
       </c>
@@ -908,7 +908,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>404</v>
       </c>
@@ -934,7 +934,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>405</v>
       </c>
@@ -960,7 +960,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>406</v>
       </c>
@@ -986,7 +986,7 @@
         <v>73050</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1005,7 +1005,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1026,7 +1026,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1045,7 +1045,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1064,7 +1064,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1083,7 +1083,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1102,7 +1102,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1121,7 +1121,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1139,7 +1139,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1158,7 +1158,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1177,7 +1177,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1196,7 +1196,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1215,7 +1215,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1234,7 +1234,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1253,7 +1253,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1283,27 +1283,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE79F550-F555-4EA5-BBC8-3718C6D7919A}">
   <dimension ref="A1:X105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.3984375" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.19921875" customWidth="1"/>
+    <col min="7" max="7" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.09765625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>401001</v>
       </c>
@@ -1401,7 +1401,7 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>401002</v>
       </c>
@@ -1455,7 +1455,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>401003</v>
       </c>
@@ -1509,7 +1509,7 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>401004</v>
       </c>
@@ -1563,7 +1563,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>401005</v>
       </c>
@@ -1617,7 +1617,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>401006</v>
       </c>
@@ -1671,7 +1671,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>401007</v>
       </c>
@@ -1725,7 +1725,7 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>401008</v>
       </c>
@@ -1779,7 +1779,7 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>401009</v>
       </c>
@@ -1833,7 +1833,7 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>401010</v>
       </c>
@@ -1887,7 +1887,7 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>401011</v>
       </c>
@@ -1941,7 +1941,7 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>401012</v>
       </c>
@@ -1995,7 +1995,7 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>401013</v>
       </c>
@@ -2049,7 +2049,7 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>401014</v>
       </c>
@@ -2103,7 +2103,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>401015</v>
       </c>
@@ -2157,7 +2157,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>401016</v>
       </c>
@@ -2211,7 +2211,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>401017</v>
       </c>
@@ -2265,7 +2265,7 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>401018</v>
       </c>
@@ -2319,7 +2319,7 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>401019</v>
       </c>
@@ -2373,7 +2373,7 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>401020</v>
       </c>
@@ -2427,7 +2427,7 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>401021</v>
       </c>
@@ -2481,7 +2481,7 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>401022</v>
       </c>
@@ -2535,7 +2535,7 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>401023</v>
       </c>
@@ -2589,7 +2589,7 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>401024</v>
       </c>
@@ -2643,7 +2643,7 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>401025</v>
       </c>
@@ -2697,7 +2697,7 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>401026</v>
       </c>
@@ -2751,7 +2751,7 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>401027</v>
       </c>
@@ -2805,7 +2805,7 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>401028</v>
       </c>
@@ -2859,7 +2859,7 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>401029</v>
       </c>
@@ -2913,7 +2913,7 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>401030</v>
       </c>
@@ -2967,7 +2967,7 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>401031</v>
       </c>
@@ -3021,7 +3021,7 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>401032</v>
       </c>
@@ -3075,7 +3075,7 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>401033</v>
       </c>
@@ -3129,7 +3129,7 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>401034</v>
       </c>
@@ -3183,7 +3183,7 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>401035</v>
       </c>
@@ -3237,7 +3237,7 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>401036</v>
       </c>
@@ -3291,7 +3291,7 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>401037</v>
       </c>
@@ -3345,7 +3345,7 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>401038</v>
       </c>
@@ -3399,7 +3399,7 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A40" s="4">
         <v>402001</v>
       </c>
@@ -3433,7 +3433,7 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A41" s="4">
         <v>402002</v>
       </c>
@@ -3467,7 +3467,7 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A42" s="4">
         <v>402003</v>
       </c>
@@ -3501,7 +3501,7 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A43" s="4">
         <v>402004</v>
       </c>
@@ -3535,7 +3535,7 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A44" s="4">
         <v>402005</v>
       </c>
@@ -3569,7 +3569,7 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A45" s="4">
         <v>402006</v>
       </c>
@@ -3603,7 +3603,7 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>403001</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>100002</v>
       </c>
       <c r="G46" s="3">
-        <v>950</v>
+        <v>50</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -3657,7 +3657,7 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>403002</v>
       </c>
@@ -3691,7 +3691,7 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <v>403003</v>
       </c>
@@ -3725,7 +3725,7 @@
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <v>403004</v>
       </c>
@@ -3759,7 +3759,7 @@
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <v>403005</v>
       </c>
@@ -3793,7 +3793,7 @@
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <v>403006</v>
       </c>
@@ -3827,7 +3827,7 @@
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A52" s="4">
         <v>404001</v>
       </c>
@@ -3861,7 +3861,7 @@
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A53" s="4">
         <v>404002</v>
       </c>
@@ -3895,7 +3895,7 @@
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A54" s="4">
         <v>404003</v>
       </c>
@@ -3929,7 +3929,7 @@
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A55" s="4">
         <v>404004</v>
       </c>
@@ -3963,7 +3963,7 @@
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A56" s="4">
         <v>404005</v>
       </c>
@@ -3997,7 +3997,7 @@
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A57" s="4">
         <v>404006</v>
       </c>
@@ -4031,7 +4031,7 @@
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <v>405001</v>
       </c>
@@ -4081,7 +4081,7 @@
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
         <v>405002</v>
       </c>
@@ -4131,7 +4131,7 @@
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <v>405003</v>
       </c>
@@ -4181,7 +4181,7 @@
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <v>405004</v>
       </c>
@@ -4231,7 +4231,7 @@
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <v>405005</v>
       </c>
@@ -4281,7 +4281,7 @@
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <v>405006</v>
       </c>
@@ -4331,7 +4331,7 @@
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <v>405007</v>
       </c>
@@ -4381,7 +4381,7 @@
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <v>405008</v>
       </c>
@@ -4431,7 +4431,7 @@
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A66" s="4">
         <v>406001</v>
       </c>
@@ -4481,7 +4481,7 @@
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A67" s="4">
         <v>406002</v>
       </c>
@@ -4531,7 +4531,7 @@
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A68" s="4">
         <v>406003</v>
       </c>
@@ -4581,7 +4581,7 @@
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A69" s="4">
         <v>406004</v>
       </c>
@@ -4631,7 +4631,7 @@
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A70" s="4">
         <v>406005</v>
       </c>
@@ -4681,7 +4681,7 @@
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A71" s="4">
         <v>406006</v>
       </c>
@@ -4731,7 +4731,7 @@
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A72" s="4">
         <v>406007</v>
       </c>
@@ -4781,7 +4781,7 @@
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A73" s="4">
         <v>406008</v>
       </c>
@@ -4831,7 +4831,7 @@
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A74" s="4">
         <v>406009</v>
       </c>
@@ -4881,7 +4881,7 @@
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A75" s="4">
         <v>406010</v>
       </c>
@@ -4931,7 +4931,7 @@
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A76" s="4">
         <v>406011</v>
       </c>
@@ -4981,7 +4981,7 @@
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A77" s="4">
         <v>406012</v>
       </c>
@@ -5031,7 +5031,7 @@
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A78" s="4">
         <v>406013</v>
       </c>
@@ -5081,7 +5081,7 @@
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A79" s="4">
         <v>406014</v>
       </c>
@@ -5131,7 +5131,7 @@
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A80" s="4">
         <v>406015</v>
       </c>
@@ -5181,7 +5181,7 @@
       <c r="W80" s="1"/>
       <c r="X80" s="1"/>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A81" s="4">
         <v>406016</v>
       </c>
@@ -5231,7 +5231,7 @@
       <c r="W81" s="1"/>
       <c r="X81" s="1"/>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A82" s="4">
         <v>406017</v>
       </c>
@@ -5281,7 +5281,7 @@
       <c r="W82" s="1"/>
       <c r="X82" s="1"/>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A83" s="4">
         <v>406018</v>
       </c>
@@ -5331,7 +5331,7 @@
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A84" s="4">
         <v>406019</v>
       </c>
@@ -5379,7 +5379,7 @@
       <c r="U84" s="1"/>
       <c r="V84" s="1"/>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A85" s="4">
         <v>406020</v>
       </c>
@@ -5427,7 +5427,7 @@
       <c r="U85" s="1"/>
       <c r="V85" s="1"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A86" s="4">
         <v>406021</v>
       </c>
@@ -5475,7 +5475,7 @@
       <c r="U86" s="1"/>
       <c r="V86" s="1"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A87" s="4">
         <v>406022</v>
       </c>
@@ -5523,7 +5523,7 @@
       <c r="U87" s="1"/>
       <c r="V87" s="1"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A88" s="4">
         <v>406023</v>
       </c>
@@ -5571,7 +5571,7 @@
       <c r="U88" s="1"/>
       <c r="V88" s="1"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A89" s="4">
         <v>406024</v>
       </c>
@@ -5619,7 +5619,7 @@
       <c r="U89" s="1"/>
       <c r="V89" s="1"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A90" s="4">
         <v>406025</v>
       </c>
@@ -5667,7 +5667,7 @@
       <c r="U90" s="1"/>
       <c r="V90" s="1"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A91" s="4">
         <v>406026</v>
       </c>
@@ -5715,7 +5715,7 @@
       <c r="U91" s="1"/>
       <c r="V91" s="1"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A92" s="4">
         <v>406027</v>
       </c>
@@ -5763,7 +5763,7 @@
       <c r="U92" s="1"/>
       <c r="V92" s="1"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A93" s="4">
         <v>406028</v>
       </c>
@@ -5811,7 +5811,7 @@
       <c r="U93" s="1"/>
       <c r="V93" s="1"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A94" s="4">
         <v>406029</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>45743</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A95" s="4">
         <v>406030</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>45743</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A96" s="4">
         <v>406031</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>45743</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A97" s="4">
         <v>406032</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>45743</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A98" s="4">
         <v>406033</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>45743</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A99" s="4">
         <v>406034</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>45743</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A100" s="4">
         <v>406035</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>45743</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A101" s="4">
         <v>406036</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>45743</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A102" s="4">
         <v>406037</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>45743</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A103" s="4">
         <v>406038</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>45743</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A104" s="4">
         <v>406039</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>45743</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A105" s="4">
         <v>406040</v>
       </c>
